--- a/results/mp/deberta/corona/confidence/210/stop-words-topk-0.35/avg_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/210/stop-words-topk-0.35/avg_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="1039">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="1039">
   <si>
     <t>anchor score</t>
   </si>
@@ -337,625 +337,625 @@
     <t>good</t>
   </si>
   <si>
+    <t>charged</t>
+  </si>
+  <si>
+    <t>holiday</t>
+  </si>
+  <si>
+    <t>profits</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>meals</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
+    <t>shock</t>
+  </si>
+  <si>
+    <t>warns</t>
+  </si>
+  <si>
+    <t>deaths</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>problems</t>
+  </si>
+  <si>
+    <t>rob</t>
+  </si>
+  <si>
+    <t>attorney</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>avoiding</t>
+  </si>
+  <si>
+    <t>warned</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>feels</t>
+  </si>
+  <si>
+    <t>tech</t>
+  </si>
+  <si>
+    <t>surprise</t>
+  </si>
+  <si>
+    <t>guidance</t>
+  </si>
+  <si>
+    <t>insights</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>serious</t>
+  </si>
+  <si>
+    <t>options</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>symptoms</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>donations</t>
+  </si>
+  <si>
+    <t>trading</t>
+  </si>
+  <si>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>volunteers</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>sorry</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>mortgage</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>worried</t>
+  </si>
+  <si>
+    <t>selfish</t>
+  </si>
+  <si>
+    <t>inflated</t>
+  </si>
+  <si>
+    <t>hear</t>
+  </si>
+  <si>
+    <t>eu</t>
+  </si>
+  <si>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>experience</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>worry</t>
+  </si>
+  <si>
+    <t>police</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>toronto</t>
+  </si>
+  <si>
+    <t>finally</t>
+  </si>
+  <si>
+    <t>move</t>
+  </si>
+  <si>
+    <t>fighting</t>
+  </si>
+  <si>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>vulnerable</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>limited</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>survive</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>personal</t>
+  </si>
+  <si>
+    <t>ridiculous</t>
+  </si>
+  <si>
+    <t>protection</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>act</t>
+  </si>
+  <si>
+    <t>lowest</t>
+  </si>
+  <si>
+    <t>team</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>especially</t>
+  </si>
+  <si>
+    <t>pp</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>whole</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>stimulus</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>markets</t>
+  </si>
+  <si>
+    <t>putting</t>
+  </si>
+  <si>
+    <t>ft</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>least</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>found</t>
+  </si>
+  <si>
+    <t>outside</t>
+  </si>
+  <si>
+    <t>rest</t>
+  </si>
+  <si>
+    <t>wearing</t>
+  </si>
+  <si>
+    <t>produce</t>
+  </si>
+  <si>
+    <t>lot</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>self</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>retailers</t>
+  </si>
+  <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>profit</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>shops</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>supermarkets</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>india</t>
+  </si>
+  <si>
+    <t>think</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>latest</t>
+  </si>
+  <si>
+    <t>tips</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>sales</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>march</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>mask</t>
+  </si>
+  <si>
+    <t>companies</t>
+  </si>
+  <si>
+    <t>outbreak</t>
+  </si>
+  <si>
+    <t>customers</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>dona</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>got</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>may</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>working</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>paper</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>even</t>
+  </si>
+  <si>
+    <t>market</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>due</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>gas</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>know</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>ho</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>see</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>buying</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>charged</t>
-  </si>
-  <si>
-    <t>holiday</t>
-  </si>
-  <si>
-    <t>profits</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>meals</t>
-  </si>
-  <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>shock</t>
-  </si>
-  <si>
-    <t>warns</t>
-  </si>
-  <si>
-    <t>deaths</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>problems</t>
-  </si>
-  <si>
-    <t>rob</t>
-  </si>
-  <si>
-    <t>attorney</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>fears</t>
+    <t>amazing</t>
   </si>
   <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>avoiding</t>
-  </si>
-  <si>
-    <t>warned</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>feels</t>
-  </si>
-  <si>
-    <t>tech</t>
-  </si>
-  <si>
-    <t>surprise</t>
-  </si>
-  <si>
-    <t>guidance</t>
-  </si>
-  <si>
-    <t>insights</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>serious</t>
-  </si>
-  <si>
-    <t>options</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>symptoms</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>donations</t>
-  </si>
-  <si>
-    <t>trading</t>
-  </si>
-  <si>
-    <t>stupid</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>volunteers</t>
-  </si>
-  <si>
-    <t>plan</t>
-  </si>
-  <si>
-    <t>sorry</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>mortgage</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>worried</t>
-  </si>
-  <si>
-    <t>selfish</t>
-  </si>
-  <si>
-    <t>inflated</t>
-  </si>
-  <si>
-    <t>hear</t>
-  </si>
-  <si>
-    <t>eu</t>
-  </si>
-  <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>experience</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>worry</t>
-  </si>
-  <si>
-    <t>police</t>
-  </si>
-  <si>
-    <t>shame</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>mean</t>
-  </si>
-  <si>
-    <t>toronto</t>
-  </si>
-  <si>
-    <t>finally</t>
-  </si>
-  <si>
-    <t>move</t>
-  </si>
-  <si>
-    <t>fighting</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>vulnerable</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>limited</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>survive</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>kind</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>personal</t>
-  </si>
-  <si>
-    <t>ridiculous</t>
-  </si>
-  <si>
-    <t>protection</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>act</t>
-  </si>
-  <si>
-    <t>lowest</t>
-  </si>
-  <si>
-    <t>team</t>
-  </si>
-  <si>
-    <t>feel</t>
-  </si>
-  <si>
-    <t>especially</t>
-  </si>
-  <si>
-    <t>pp</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>whole</t>
-  </si>
-  <si>
-    <t>website</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
-    <t>solution</t>
-  </si>
-  <si>
-    <t>stimulus</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>markets</t>
-  </si>
-  <si>
-    <t>putting</t>
-  </si>
-  <si>
-    <t>ft</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>least</t>
-  </si>
-  <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>found</t>
-  </si>
-  <si>
-    <t>outside</t>
-  </si>
-  <si>
-    <t>rest</t>
-  </si>
-  <si>
-    <t>wearing</t>
-  </si>
-  <si>
-    <t>produce</t>
-  </si>
-  <si>
-    <t>lot</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>self</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>retailers</t>
-  </si>
-  <si>
-    <t>items</t>
-  </si>
-  <si>
-    <t>profit</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>shops</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>supermarkets</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>india</t>
-  </si>
-  <si>
-    <t>think</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>latest</t>
-  </si>
-  <si>
-    <t>tips</t>
-  </si>
-  <si>
-    <t>come</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>000</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>sales</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>two</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>march</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>stores</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>mask</t>
-  </si>
-  <si>
-    <t>companies</t>
-  </si>
-  <si>
-    <t>outbreak</t>
-  </si>
-  <si>
-    <t>customers</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>empty</t>
-  </si>
-  <si>
-    <t>dona</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>got</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>uk</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>may</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>working</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>paper</t>
-  </si>
-  <si>
-    <t>ia</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>even</t>
-  </si>
-  <si>
-    <t>market</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>due</t>
-  </si>
-  <si>
-    <t>many</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>gas</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>know</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>ho</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>see</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>buying</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>pan</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>amazing</t>
   </si>
   <si>
     <t>healthy</t>
@@ -3496,10 +3496,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="J1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3678,7 +3678,7 @@
         <v>2</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="K5">
         <v>0.9322033898305084</v>
@@ -3778,7 +3778,7 @@
         <v>3</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="K7">
         <v>0.8461538461538461</v>
@@ -3878,7 +3878,7 @@
         <v>3</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K9">
         <v>0.8267716535433071</v>
@@ -3928,7 +3928,7 @@
         <v>11</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K10">
         <v>0.7936507936507936</v>
@@ -4028,7 +4028,7 @@
         <v>4</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="K12">
         <v>0.7777777777777778</v>
@@ -4178,7 +4178,7 @@
         <v>3</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K15">
         <v>0.6666666666666666</v>
@@ -4228,28 +4228,28 @@
         <v>3</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>107</v>
+        <v>60</v>
       </c>
       <c r="K16">
-        <v>0.658008658008658</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="L16">
-        <v>152</v>
+        <v>17</v>
       </c>
       <c r="M16">
-        <v>160</v>
+        <v>19</v>
       </c>
       <c r="N16">
-        <v>0.95</v>
+        <v>0.89</v>
       </c>
       <c r="O16">
-        <v>0.05000000000000004</v>
+        <v>0.11</v>
       </c>
       <c r="P16" t="b">
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>79</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -4278,28 +4278,28 @@
         <v>6</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>60</v>
+        <v>310</v>
       </c>
       <c r="K17">
-        <v>0.6538461538461539</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="L17">
+        <v>30</v>
+      </c>
+      <c r="M17">
+        <v>30</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
         <v>17</v>
-      </c>
-      <c r="M17">
-        <v>19</v>
-      </c>
-      <c r="N17">
-        <v>0.89</v>
-      </c>
-      <c r="O17">
-        <v>0.11</v>
-      </c>
-      <c r="P17" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q17">
-        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -4328,16 +4328,16 @@
         <v>5</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K18">
-        <v>0.6382978723404256</v>
+        <v>0.6359832635983264</v>
       </c>
       <c r="L18">
-        <v>30</v>
+        <v>152</v>
       </c>
       <c r="M18">
-        <v>30</v>
+        <v>152</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -4349,7 +4349,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>17</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -4378,7 +4378,7 @@
         <v>2</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K19">
         <v>0.6153846153846154</v>
@@ -4428,7 +4428,7 @@
         <v>6</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K20">
         <v>0.6111111111111112</v>
@@ -4528,7 +4528,7 @@
         <v>22</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K22">
         <v>0.5815602836879432</v>
@@ -4578,7 +4578,7 @@
         <v>8</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K23">
         <v>0.5652173913043478</v>
@@ -4678,7 +4678,7 @@
         <v>9</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K25">
         <v>0.5348837209302325</v>
@@ -4728,7 +4728,7 @@
         <v>10</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K26">
         <v>0.5294117647058824</v>
@@ -4778,28 +4778,28 @@
         <v>6</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>124</v>
+        <v>76</v>
       </c>
       <c r="K27">
-        <v>0.5290519877675841</v>
+        <v>0.52</v>
       </c>
       <c r="L27">
-        <v>173</v>
+        <v>13</v>
       </c>
       <c r="M27">
-        <v>186</v>
+        <v>15</v>
       </c>
       <c r="N27">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="O27">
-        <v>0.06999999999999995</v>
+        <v>0.13</v>
       </c>
       <c r="P27" t="b">
         <v>1</v>
       </c>
       <c r="Q27">
-        <v>154</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -4828,28 +4828,28 @@
         <v>4</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>76</v>
+        <v>313</v>
       </c>
       <c r="K28">
-        <v>0.52</v>
+        <v>0.5088235294117647</v>
       </c>
       <c r="L28">
-        <v>13</v>
+        <v>173</v>
       </c>
       <c r="M28">
-        <v>15</v>
+        <v>173</v>
       </c>
       <c r="N28">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="O28">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="P28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>12</v>
+        <v>167</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -4928,7 +4928,7 @@
         <v>13</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K30">
         <v>0.4571428571428571</v>
@@ -4978,7 +4978,7 @@
         <v>17</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K31">
         <v>0.4570446735395189</v>
@@ -5078,7 +5078,7 @@
         <v>5</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K33">
         <v>0.453125</v>
@@ -5328,7 +5328,7 @@
         <v>55</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K38">
         <v>0.4225721784776903</v>
@@ -6628,7 +6628,7 @@
         <v>16</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K64">
         <v>0.2962962962962963</v>
@@ -6728,7 +6728,7 @@
         <v>22</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K66">
         <v>0.2926829268292683</v>
@@ -6878,7 +6878,7 @@
         <v>6</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K69">
         <v>0.2857142857142857</v>
@@ -7178,7 +7178,7 @@
         <v>6</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K75">
         <v>0.2708333333333333</v>
@@ -7278,7 +7278,7 @@
         <v>444</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K77">
         <v>0.2666666666666667</v>
@@ -7328,7 +7328,7 @@
         <v>13</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K78">
         <v>0.2666666666666667</v>
@@ -7478,7 +7478,7 @@
         <v>14</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K81">
         <v>0.2608695652173913</v>
@@ -7628,7 +7628,7 @@
         <v>7</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K84">
         <v>0.2531645569620253</v>
@@ -8028,7 +8028,7 @@
         <v>27</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K92">
         <v>0.2433734939759036</v>
@@ -8078,7 +8078,7 @@
         <v>27</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K93">
         <v>0.2380952380952381</v>
@@ -8428,7 +8428,7 @@
         <v>19</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K100">
         <v>0.2307692307692308</v>
@@ -8507,25 +8507,25 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0.09195402298850575</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C102">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D102">
-        <v>160</v>
+        <v>1</v>
       </c>
       <c r="E102">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F102">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G102" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H102">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="J102" s="1" t="s">
         <v>369</v>
@@ -8563,16 +8563,16 @@
         <v>1</v>
       </c>
       <c r="D103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F103">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H103">
         <v>10</v>
@@ -8613,13 +8613,13 @@
         <v>1</v>
       </c>
       <c r="D104">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E104">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="F104">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="G104" t="b">
         <v>1</v>
@@ -8663,16 +8663,16 @@
         <v>1</v>
       </c>
       <c r="D105">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E105">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F105">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G105" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H105">
         <v>10</v>
@@ -8710,22 +8710,22 @@
         <v>0.09090909090909091</v>
       </c>
       <c r="C106">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D106">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="E106">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F106">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H106">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J106" s="1" t="s">
         <v>373</v>
@@ -8760,22 +8760,22 @@
         <v>0.09090909090909091</v>
       </c>
       <c r="C107">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D107">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="E107">
-        <v>0.93</v>
+        <v>0.75</v>
       </c>
       <c r="F107">
-        <v>0.06999999999999995</v>
+        <v>0.25</v>
       </c>
       <c r="G107" t="b">
         <v>1</v>
       </c>
       <c r="H107">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J107" s="1" t="s">
         <v>374</v>
@@ -8807,25 +8807,25 @@
         <v>113</v>
       </c>
       <c r="B108">
-        <v>0.09090909090909091</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="C108">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D108">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E108">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F108">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G108" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H108">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="J108" s="1" t="s">
         <v>375</v>
@@ -8857,13 +8857,13 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>0.08695652173913043</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C109">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D109">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E109">
         <v>0</v>
@@ -8875,7 +8875,7 @@
         <v>0</v>
       </c>
       <c r="H109">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="J109" s="1" t="s">
         <v>87</v>
@@ -8928,7 +8928,7 @@
         <v>11</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K110">
         <v>0.2205882352941176</v>
@@ -9013,16 +9013,16 @@
         <v>1</v>
       </c>
       <c r="D112">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E112">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F112">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H112">
         <v>11</v>
@@ -9063,16 +9063,16 @@
         <v>1</v>
       </c>
       <c r="D113">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E113">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F113">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G113" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H113">
         <v>11</v>
@@ -9207,28 +9207,28 @@
         <v>121</v>
       </c>
       <c r="B116">
-        <v>0.08333333333333333</v>
+        <v>0.07894736842105263</v>
       </c>
       <c r="C116">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D116">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E116">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F116">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H116">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K116">
         <v>0.2101910828025478</v>
@@ -9257,25 +9257,25 @@
         <v>122</v>
       </c>
       <c r="B117">
-        <v>0.07894736842105263</v>
+        <v>0.07843137254901961</v>
       </c>
       <c r="C117">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D117">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="E117">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F117">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G117" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H117">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="J117" s="1" t="s">
         <v>381</v>
@@ -9307,13 +9307,13 @@
         <v>123</v>
       </c>
       <c r="B118">
-        <v>0.07843137254901961</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C118">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D118">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E118">
         <v>0</v>
@@ -9325,7 +9325,7 @@
         <v>0</v>
       </c>
       <c r="H118">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="J118" s="1" t="s">
         <v>382</v>
@@ -9357,25 +9357,25 @@
         <v>124</v>
       </c>
       <c r="B119">
-        <v>0.07784431137724551</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C119">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D119">
-        <v>186</v>
+        <v>1</v>
       </c>
       <c r="E119">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F119">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H119">
-        <v>154</v>
+        <v>12</v>
       </c>
       <c r="J119" s="1" t="s">
         <v>383</v>
@@ -9410,10 +9410,10 @@
         <v>0.07692307692307693</v>
       </c>
       <c r="C120">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D120">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E120">
         <v>0</v>
@@ -9425,7 +9425,7 @@
         <v>0</v>
       </c>
       <c r="H120">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="J120" s="1" t="s">
         <v>384</v>
@@ -9463,16 +9463,16 @@
         <v>1</v>
       </c>
       <c r="D121">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E121">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F121">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H121">
         <v>12</v>
@@ -9510,22 +9510,22 @@
         <v>0.07692307692307693</v>
       </c>
       <c r="C122">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D122">
         <v>3</v>
       </c>
       <c r="E122">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F122">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H122">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="J122" s="1" t="s">
         <v>386</v>
@@ -9563,16 +9563,16 @@
         <v>1</v>
       </c>
       <c r="D123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E123">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F123">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G123" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H123">
         <v>12</v>
@@ -9660,22 +9660,22 @@
         <v>0.07692307692307693</v>
       </c>
       <c r="C125">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D125">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E125">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F125">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="G125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H125">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="J125" s="1" t="s">
         <v>389</v>
@@ -9710,22 +9710,22 @@
         <v>0.07692307692307693</v>
       </c>
       <c r="C126">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D126">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E126">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F126">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G126" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H126">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="J126" s="1" t="s">
         <v>390</v>
@@ -9757,25 +9757,25 @@
         <v>132</v>
       </c>
       <c r="B127">
-        <v>0.07692307692307693</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="C127">
         <v>2</v>
       </c>
       <c r="D127">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E127">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F127">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="G127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H127">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J127" s="1" t="s">
         <v>391</v>
@@ -9807,7 +9807,7 @@
         <v>133</v>
       </c>
       <c r="B128">
-        <v>0.07692307692307693</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C128">
         <v>2</v>
@@ -9825,7 +9825,7 @@
         <v>0</v>
       </c>
       <c r="H128">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J128" s="1" t="s">
         <v>392</v>
@@ -9857,25 +9857,25 @@
         <v>134</v>
       </c>
       <c r="B129">
-        <v>0.07407407407407407</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C129">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D129">
         <v>2</v>
       </c>
       <c r="E129">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F129">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H129">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="J129" s="1" t="s">
         <v>393</v>
@@ -9907,25 +9907,25 @@
         <v>135</v>
       </c>
       <c r="B130">
-        <v>0.07142857142857142</v>
+        <v>0.06976744186046512</v>
       </c>
       <c r="C130">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D130">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="E130">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F130">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H130">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="J130" s="1" t="s">
         <v>56</v>
@@ -9957,25 +9957,25 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>0.07142857142857142</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C131">
         <v>1</v>
       </c>
       <c r="D131">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E131">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F131">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G131" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H131">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J131" s="1" t="s">
         <v>394</v>
@@ -10007,25 +10007,25 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0.06976744186046512</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C132">
         <v>3</v>
       </c>
       <c r="D132">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="E132">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F132">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H132">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J132" s="1" t="s">
         <v>395</v>
@@ -10063,16 +10063,16 @@
         <v>1</v>
       </c>
       <c r="D133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E133">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F133">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G133" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H133">
         <v>14</v>
@@ -10110,10 +10110,10 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="C134">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D134">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E134">
         <v>0</v>
@@ -10125,7 +10125,7 @@
         <v>0</v>
       </c>
       <c r="H134">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="J134" s="1" t="s">
         <v>397</v>
@@ -10163,16 +10163,16 @@
         <v>1</v>
       </c>
       <c r="D135">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E135">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F135">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G135" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H135">
         <v>14</v>
@@ -10207,28 +10207,28 @@
         <v>141</v>
       </c>
       <c r="B136">
-        <v>0.06666666666666667</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="C136">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D136">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E136">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F136">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G136" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H136">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="J136" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K136">
         <v>0.1944444444444444</v>
@@ -10257,7 +10257,7 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>0.06666666666666667</v>
+        <v>0.0625</v>
       </c>
       <c r="C137">
         <v>1</v>
@@ -10275,10 +10275,10 @@
         <v>0</v>
       </c>
       <c r="H137">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J137" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K137">
         <v>0.1937984496124031</v>
@@ -10307,25 +10307,25 @@
         <v>143</v>
       </c>
       <c r="B138">
-        <v>0.06451612903225806</v>
+        <v>0.0625</v>
       </c>
       <c r="C138">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D138">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E138">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F138">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G138" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H138">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="J138" s="1" t="s">
         <v>399</v>
@@ -10357,7 +10357,7 @@
         <v>144</v>
       </c>
       <c r="B139">
-        <v>0.0625</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C139">
         <v>1</v>
@@ -10375,7 +10375,7 @@
         <v>0</v>
       </c>
       <c r="H139">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J139" s="1" t="s">
         <v>400</v>
@@ -10407,25 +10407,25 @@
         <v>145</v>
       </c>
       <c r="B140">
-        <v>0.0625</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C140">
         <v>1</v>
       </c>
       <c r="D140">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E140">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F140">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H140">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J140" s="1" t="s">
         <v>401</v>
@@ -10510,25 +10510,25 @@
         <v>0.05882352941176471</v>
       </c>
       <c r="C142">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D142">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="E142">
-        <v>0.67</v>
+        <v>0.95</v>
       </c>
       <c r="F142">
-        <v>0.33</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G142" t="b">
         <v>1</v>
       </c>
       <c r="H142">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="J142" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K142">
         <v>0.1908396946564886</v>
@@ -10560,10 +10560,10 @@
         <v>0.05882352941176471</v>
       </c>
       <c r="C143">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D143">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E143">
         <v>0</v>
@@ -10575,7 +10575,7 @@
         <v>0</v>
       </c>
       <c r="H143">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="J143" s="1" t="s">
         <v>403</v>
@@ -10607,25 +10607,25 @@
         <v>149</v>
       </c>
       <c r="B144">
-        <v>0.05882352941176471</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C144">
         <v>2</v>
       </c>
       <c r="D144">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="E144">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F144">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G144" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H144">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J144" s="1" t="s">
         <v>404</v>
@@ -10657,13 +10657,13 @@
         <v>150</v>
       </c>
       <c r="B145">
-        <v>0.05882352941176471</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C145">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D145">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E145">
         <v>0</v>
@@ -10675,7 +10675,7 @@
         <v>0</v>
       </c>
       <c r="H145">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="J145" s="1" t="s">
         <v>405</v>
@@ -10710,10 +10710,10 @@
         <v>0.05555555555555555</v>
       </c>
       <c r="C146">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D146">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E146">
         <v>0</v>
@@ -10725,10 +10725,10 @@
         <v>0</v>
       </c>
       <c r="H146">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="J146" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K146">
         <v>0.1851851851851852</v>
@@ -10813,16 +10813,16 @@
         <v>1</v>
       </c>
       <c r="D148">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E148">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F148">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H148">
         <v>17</v>
@@ -10863,16 +10863,16 @@
         <v>1</v>
       </c>
       <c r="D149">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E149">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="F149">
-        <v>1</v>
+        <v>0.14</v>
       </c>
       <c r="G149" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H149">
         <v>17</v>
@@ -10910,22 +10910,22 @@
         <v>0.05555555555555555</v>
       </c>
       <c r="C150">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D150">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E150">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="F150">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="G150" t="b">
         <v>1</v>
       </c>
       <c r="H150">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="J150" s="1" t="s">
         <v>409</v>
@@ -10963,16 +10963,16 @@
         <v>1</v>
       </c>
       <c r="D151">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E151">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="F151">
-        <v>0.14</v>
+        <v>1</v>
       </c>
       <c r="G151" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H151">
         <v>17</v>
@@ -11007,28 +11007,28 @@
         <v>157</v>
       </c>
       <c r="B152">
-        <v>0.05555555555555555</v>
+        <v>0.05405405405405406</v>
       </c>
       <c r="C152">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D152">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E152">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F152">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G152" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H152">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="J152" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K152">
         <v>0.1818181818181818</v>
@@ -11057,13 +11057,13 @@
         <v>158</v>
       </c>
       <c r="B153">
-        <v>0.05555555555555555</v>
+        <v>0.05405405405405406</v>
       </c>
       <c r="C153">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D153">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E153">
         <v>0</v>
@@ -11075,7 +11075,7 @@
         <v>0</v>
       </c>
       <c r="H153">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="J153" s="1" t="s">
         <v>411</v>
@@ -11107,13 +11107,13 @@
         <v>159</v>
       </c>
       <c r="B154">
-        <v>0.05405405405405406</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C154">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D154">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E154">
         <v>0</v>
@@ -11125,7 +11125,7 @@
         <v>0</v>
       </c>
       <c r="H154">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="J154" s="1" t="s">
         <v>412</v>
@@ -11157,25 +11157,25 @@
         <v>160</v>
       </c>
       <c r="B155">
-        <v>0.05405405405405406</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C155">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D155">
         <v>2</v>
       </c>
       <c r="E155">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F155">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G155" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H155">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="J155" s="1" t="s">
         <v>413</v>
@@ -11228,7 +11228,7 @@
         <v>18</v>
       </c>
       <c r="J156" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K156">
         <v>0.18</v>
@@ -11263,13 +11263,13 @@
         <v>1</v>
       </c>
       <c r="D157">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E157">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F157">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G157" t="b">
         <v>1</v>
@@ -11278,7 +11278,7 @@
         <v>18</v>
       </c>
       <c r="J157" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K157">
         <v>0.1790123456790123</v>
@@ -11363,16 +11363,16 @@
         <v>1</v>
       </c>
       <c r="D159">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E159">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F159">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G159" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H159">
         <v>18</v>
@@ -11407,13 +11407,13 @@
         <v>165</v>
       </c>
       <c r="B160">
-        <v>0.05263157894736842</v>
+        <v>0.05194805194805195</v>
       </c>
       <c r="C160">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D160">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E160">
         <v>0</v>
@@ -11425,7 +11425,7 @@
         <v>0</v>
       </c>
       <c r="H160">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="J160" s="1" t="s">
         <v>416</v>
@@ -11457,13 +11457,13 @@
         <v>166</v>
       </c>
       <c r="B161">
-        <v>0.05263157894736842</v>
+        <v>0.05</v>
       </c>
       <c r="C161">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D161">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E161">
         <v>0</v>
@@ -11475,7 +11475,7 @@
         <v>0</v>
       </c>
       <c r="H161">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="J161" s="1" t="s">
         <v>417</v>
@@ -11507,25 +11507,25 @@
         <v>167</v>
       </c>
       <c r="B162">
-        <v>0.05194805194805195</v>
+        <v>0.05</v>
       </c>
       <c r="C162">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D162">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="E162">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F162">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G162" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H162">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="J162" s="1" t="s">
         <v>418</v>
@@ -11560,25 +11560,25 @@
         <v>0.05</v>
       </c>
       <c r="C163">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D163">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E163">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F163">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G163" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H163">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="J163" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K163">
         <v>0.1690140845070423</v>
@@ -11613,16 +11613,16 @@
         <v>1</v>
       </c>
       <c r="D164">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="E164">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F164">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G164" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H164">
         <v>19</v>
@@ -11663,13 +11663,13 @@
         <v>1</v>
       </c>
       <c r="D165">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E165">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="F165">
-        <v>0.06000000000000005</v>
+        <v>0.11</v>
       </c>
       <c r="G165" t="b">
         <v>1</v>
@@ -11707,7 +11707,7 @@
         <v>171</v>
       </c>
       <c r="B166">
-        <v>0.05</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="C166">
         <v>1</v>
@@ -11725,7 +11725,7 @@
         <v>0</v>
       </c>
       <c r="H166">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J166" s="1" t="s">
         <v>421</v>
@@ -11757,25 +11757,25 @@
         <v>172</v>
       </c>
       <c r="B167">
-        <v>0.05</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C167">
         <v>1</v>
       </c>
       <c r="D167">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E167">
-        <v>0.89</v>
+        <v>0.67</v>
       </c>
       <c r="F167">
-        <v>0.11</v>
+        <v>0.33</v>
       </c>
       <c r="G167" t="b">
         <v>1</v>
       </c>
       <c r="H167">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J167" s="1" t="s">
         <v>422</v>
@@ -11807,25 +11807,25 @@
         <v>173</v>
       </c>
       <c r="B168">
-        <v>0.04761904761904762</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C168">
         <v>1</v>
       </c>
       <c r="D168">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E168">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F168">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G168" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H168">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J168" s="1" t="s">
         <v>423</v>
@@ -11863,13 +11863,13 @@
         <v>1</v>
       </c>
       <c r="D169">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E169">
-        <v>0.67</v>
+        <v>0.8</v>
       </c>
       <c r="F169">
-        <v>0.33</v>
+        <v>0.2</v>
       </c>
       <c r="G169" t="b">
         <v>1</v>
@@ -11913,13 +11913,13 @@
         <v>1</v>
       </c>
       <c r="D170">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E170">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F170">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G170" t="b">
         <v>1</v>
@@ -11963,16 +11963,16 @@
         <v>1</v>
       </c>
       <c r="D171">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E171">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F171">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H171">
         <v>21</v>
@@ -12007,25 +12007,25 @@
         <v>177</v>
       </c>
       <c r="B172">
-        <v>0.04545454545454546</v>
+        <v>0.04444444444444445</v>
       </c>
       <c r="C172">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D172">
         <v>2</v>
       </c>
       <c r="E172">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F172">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G172" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H172">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="J172" s="1" t="s">
         <v>427</v>
@@ -12057,28 +12057,28 @@
         <v>178</v>
       </c>
       <c r="B173">
-        <v>0.04545454545454546</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C173">
         <v>1</v>
       </c>
       <c r="D173">
-        <v>1</v>
+        <v>106</v>
       </c>
       <c r="E173">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="F173">
-        <v>1</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G173" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H173">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J173" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K173">
         <v>0.1666666666666667</v>
@@ -12107,13 +12107,13 @@
         <v>179</v>
       </c>
       <c r="B174">
-        <v>0.04444444444444445</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C174">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D174">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E174">
         <v>0</v>
@@ -12125,7 +12125,7 @@
         <v>0</v>
       </c>
       <c r="H174">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="J174" s="1" t="s">
         <v>428</v>
@@ -12163,16 +12163,16 @@
         <v>1</v>
       </c>
       <c r="D175">
-        <v>106</v>
+        <v>1</v>
       </c>
       <c r="E175">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="F175">
-        <v>0.01000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G175" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H175">
         <v>22</v>
@@ -12207,25 +12207,25 @@
         <v>181</v>
       </c>
       <c r="B176">
-        <v>0.04347826086956522</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="C176">
         <v>1</v>
       </c>
       <c r="D176">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E176">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F176">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G176" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H176">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J176" s="1" t="s">
         <v>430</v>
@@ -12257,25 +12257,25 @@
         <v>182</v>
       </c>
       <c r="B177">
-        <v>0.04347826086956522</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="C177">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D177">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E177">
-        <v>0</v>
+        <v>0.82</v>
       </c>
       <c r="F177">
-        <v>1</v>
+        <v>0.18</v>
       </c>
       <c r="G177" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H177">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>431</v>
@@ -12313,16 +12313,16 @@
         <v>1</v>
       </c>
       <c r="D178">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E178">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F178">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G178" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H178">
         <v>23</v>
@@ -12360,22 +12360,22 @@
         <v>0.04166666666666666</v>
       </c>
       <c r="C179">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D179">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E179">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="F179">
-        <v>0.18</v>
+        <v>0.25</v>
       </c>
       <c r="G179" t="b">
         <v>1</v>
       </c>
       <c r="H179">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="J179" s="1" t="s">
         <v>433</v>
@@ -12407,13 +12407,13 @@
         <v>185</v>
       </c>
       <c r="B180">
-        <v>0.04166666666666666</v>
+        <v>0.04026845637583892</v>
       </c>
       <c r="C180">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D180">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E180">
         <v>0</v>
@@ -12425,7 +12425,7 @@
         <v>0</v>
       </c>
       <c r="H180">
-        <v>23</v>
+        <v>143</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>434</v>
@@ -12457,25 +12457,25 @@
         <v>186</v>
       </c>
       <c r="B181">
-        <v>0.04166666666666666</v>
+        <v>0.04</v>
       </c>
       <c r="C181">
         <v>1</v>
       </c>
       <c r="D181">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E181">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F181">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G181" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H181">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>435</v>
@@ -12507,25 +12507,25 @@
         <v>187</v>
       </c>
       <c r="B182">
-        <v>0.04026845637583892</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="C182">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D182">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E182">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F182">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G182" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H182">
-        <v>143</v>
+        <v>25</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>436</v>
@@ -12557,13 +12557,13 @@
         <v>188</v>
       </c>
       <c r="B183">
-        <v>0.04</v>
+        <v>0.0375</v>
       </c>
       <c r="C183">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D183">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E183">
         <v>0</v>
@@ -12575,7 +12575,7 @@
         <v>0</v>
       </c>
       <c r="H183">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>437</v>
@@ -12607,25 +12607,25 @@
         <v>189</v>
       </c>
       <c r="B184">
-        <v>0.03846153846153846</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C184">
         <v>1</v>
       </c>
       <c r="D184">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E184">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="F184">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="G184" t="b">
         <v>1</v>
       </c>
       <c r="H184">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J184" s="1" t="s">
         <v>438</v>
@@ -12657,13 +12657,13 @@
         <v>190</v>
       </c>
       <c r="B185">
-        <v>0.0375</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C185">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D185">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E185">
         <v>0</v>
@@ -12675,7 +12675,7 @@
         <v>0</v>
       </c>
       <c r="H185">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="J185" s="1" t="s">
         <v>439</v>
@@ -12713,13 +12713,13 @@
         <v>1</v>
       </c>
       <c r="D186">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E186">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="F186">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="G186" t="b">
         <v>1</v>
@@ -12757,25 +12757,25 @@
         <v>192</v>
       </c>
       <c r="B187">
-        <v>0.03703703703703703</v>
+        <v>0.03636363636363636</v>
       </c>
       <c r="C187">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D187">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E187">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F187">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="G187" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H187">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="J187" s="1" t="s">
         <v>441</v>
@@ -12807,25 +12807,25 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.03703703703703703</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="C188">
         <v>1</v>
       </c>
       <c r="D188">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E188">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F188">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G188" t="b">
         <v>1</v>
       </c>
       <c r="H188">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J188" s="1" t="s">
         <v>442</v>
@@ -12857,25 +12857,25 @@
         <v>194</v>
       </c>
       <c r="B189">
-        <v>0.03636363636363636</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="C189">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D189">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E189">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F189">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="G189" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H189">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="J189" s="1" t="s">
         <v>443</v>
@@ -12907,7 +12907,7 @@
         <v>195</v>
       </c>
       <c r="B190">
-        <v>0.03571428571428571</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="C190">
         <v>1</v>
@@ -12925,7 +12925,7 @@
         <v>1</v>
       </c>
       <c r="H190">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J190" s="1" t="s">
         <v>444</v>
@@ -12957,25 +12957,25 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0.03571428571428571</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="C191">
         <v>1</v>
       </c>
       <c r="D191">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E191">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="F191">
-        <v>1</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G191" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H191">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>445</v>
@@ -13007,25 +13007,25 @@
         <v>197</v>
       </c>
       <c r="B192">
-        <v>0.03448275862068965</v>
+        <v>0.03125</v>
       </c>
       <c r="C192">
         <v>1</v>
       </c>
       <c r="D192">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E192">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="F192">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="G192" t="b">
         <v>1</v>
       </c>
       <c r="H192">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="J192" s="1" t="s">
         <v>446</v>
@@ -13057,25 +13057,25 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0.03333333333333333</v>
+        <v>0.03125</v>
       </c>
       <c r="C193">
         <v>1</v>
       </c>
       <c r="D193">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E193">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="F193">
-        <v>0.07999999999999996</v>
+        <v>1</v>
       </c>
       <c r="G193" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H193">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J193" s="1" t="s">
         <v>447</v>
@@ -13107,25 +13107,25 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.03125</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="C194">
         <v>1</v>
       </c>
       <c r="D194">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E194">
-        <v>0.67</v>
+        <v>0.91</v>
       </c>
       <c r="F194">
-        <v>0.33</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G194" t="b">
         <v>1</v>
       </c>
       <c r="H194">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J194" s="1" t="s">
         <v>448</v>
@@ -13157,7 +13157,7 @@
         <v>200</v>
       </c>
       <c r="B195">
-        <v>0.03125</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="C195">
         <v>1</v>
@@ -13175,7 +13175,7 @@
         <v>0</v>
       </c>
       <c r="H195">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J195" s="1" t="s">
         <v>449</v>
@@ -13207,25 +13207,25 @@
         <v>201</v>
       </c>
       <c r="B196">
-        <v>0.0303030303030303</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="C196">
         <v>1</v>
       </c>
       <c r="D196">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E196">
-        <v>0.91</v>
+        <v>0.75</v>
       </c>
       <c r="F196">
-        <v>0.08999999999999997</v>
+        <v>0.25</v>
       </c>
       <c r="G196" t="b">
         <v>1</v>
       </c>
       <c r="H196">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J196" s="1" t="s">
         <v>450</v>
@@ -13257,25 +13257,25 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.02941176470588235</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="C197">
         <v>1</v>
       </c>
       <c r="D197">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E197">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="F197">
-        <v>1</v>
+        <v>0.14</v>
       </c>
       <c r="G197" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H197">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>451</v>
@@ -13307,28 +13307,28 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.02941176470588235</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="C198">
         <v>1</v>
       </c>
       <c r="D198">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E198">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F198">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G198" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H198">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J198" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="K198">
         <v>0.1642512077294686</v>
@@ -13363,13 +13363,13 @@
         <v>1</v>
       </c>
       <c r="D199">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E199">
-        <v>0.86</v>
+        <v>0.5</v>
       </c>
       <c r="F199">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="G199" t="b">
         <v>1</v>
@@ -13378,7 +13378,7 @@
         <v>34</v>
       </c>
       <c r="J199" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K199">
         <v>0.1636363636363636</v>
@@ -13413,22 +13413,22 @@
         <v>1</v>
       </c>
       <c r="D200">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E200">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F200">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G200" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H200">
         <v>34</v>
       </c>
       <c r="J200" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K200">
         <v>0.16</v>
@@ -13463,16 +13463,16 @@
         <v>1</v>
       </c>
       <c r="D201">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E201">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F201">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G201" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H201">
         <v>34</v>
@@ -13507,25 +13507,25 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.02857142857142857</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="C202">
         <v>1</v>
       </c>
       <c r="D202">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E202">
-        <v>0.67</v>
+        <v>0.86</v>
       </c>
       <c r="F202">
-        <v>0.33</v>
+        <v>0.14</v>
       </c>
       <c r="G202" t="b">
         <v>1</v>
       </c>
       <c r="H202">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J202" s="1" t="s">
         <v>453</v>
@@ -13557,25 +13557,25 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.02857142857142857</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="C203">
         <v>1</v>
       </c>
       <c r="D203">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="E203">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F203">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G203" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H203">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>454</v>
@@ -13607,25 +13607,25 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.02777777777777778</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="C204">
         <v>1</v>
       </c>
       <c r="D204">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E204">
-        <v>0.86</v>
+        <v>0.67</v>
       </c>
       <c r="F204">
-        <v>0.14</v>
+        <v>0.33</v>
       </c>
       <c r="G204" t="b">
         <v>1</v>
       </c>
       <c r="H204">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J204" s="1" t="s">
         <v>455</v>
@@ -13657,25 +13657,25 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>0.02777777777777778</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="C205">
         <v>1</v>
       </c>
       <c r="D205">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="E205">
-        <v>0.97</v>
+        <v>0.5</v>
       </c>
       <c r="F205">
-        <v>0.03000000000000003</v>
+        <v>0.5</v>
       </c>
       <c r="G205" t="b">
         <v>1</v>
       </c>
       <c r="H205">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J205" s="1" t="s">
         <v>456</v>
@@ -13707,25 +13707,25 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.02702702702702703</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="C206">
         <v>1</v>
       </c>
       <c r="D206">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E206">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F206">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G206" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H206">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J206" s="1" t="s">
         <v>457</v>
@@ -13757,25 +13757,25 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.02631578947368421</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="C207">
         <v>1</v>
       </c>
       <c r="D207">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E207">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="F207">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="G207" t="b">
         <v>1</v>
       </c>
       <c r="H207">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J207" s="1" t="s">
         <v>458</v>
@@ -13807,25 +13807,25 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>0.02564102564102564</v>
+        <v>0.025</v>
       </c>
       <c r="C208">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D208">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E208">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F208">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G208" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H208">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>459</v>
@@ -13857,25 +13857,25 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.02564102564102564</v>
+        <v>0.02469135802469136</v>
       </c>
       <c r="C209">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D209">
-        <v>3</v>
+        <v>137</v>
       </c>
       <c r="E209">
-        <v>0.67</v>
+        <v>0.97</v>
       </c>
       <c r="F209">
-        <v>0.33</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G209" t="b">
         <v>1</v>
       </c>
       <c r="H209">
-        <v>38</v>
+        <v>158</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>460</v>
@@ -13907,25 +13907,25 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>0.025</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="C210">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D210">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E210">
-        <v>0.5</v>
+        <v>0.88</v>
       </c>
       <c r="F210">
-        <v>0.5</v>
+        <v>0.12</v>
       </c>
       <c r="G210" t="b">
         <v>1</v>
       </c>
       <c r="H210">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>461</v>
@@ -13957,25 +13957,25 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>0.02469135802469136</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="C211">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D211">
-        <v>137</v>
+        <v>15</v>
       </c>
       <c r="E211">
-        <v>0.97</v>
+        <v>0.87</v>
       </c>
       <c r="F211">
-        <v>0.03000000000000003</v>
+        <v>0.13</v>
       </c>
       <c r="G211" t="b">
         <v>1</v>
       </c>
       <c r="H211">
-        <v>158</v>
+        <v>82</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>462</v>
@@ -14013,13 +14013,13 @@
         <v>1</v>
       </c>
       <c r="D212">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E212">
-        <v>0.88</v>
+        <v>0.75</v>
       </c>
       <c r="F212">
-        <v>0.12</v>
+        <v>0.25</v>
       </c>
       <c r="G212" t="b">
         <v>1</v>
@@ -14057,25 +14057,25 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>0.02380952380952381</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="C213">
         <v>2</v>
       </c>
       <c r="D213">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E213">
-        <v>0.87</v>
+        <v>0.67</v>
       </c>
       <c r="F213">
-        <v>0.13</v>
+        <v>0.33</v>
       </c>
       <c r="G213" t="b">
         <v>1</v>
       </c>
       <c r="H213">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>464</v>
@@ -14107,7 +14107,7 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.02380952380952381</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="C214">
         <v>1</v>
@@ -14125,7 +14125,7 @@
         <v>1</v>
       </c>
       <c r="H214">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>465</v>
@@ -14157,25 +14157,25 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>0.02272727272727273</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="C215">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D215">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E215">
-        <v>0.67</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F215">
-        <v>0.33</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G215" t="b">
         <v>1</v>
       </c>
       <c r="H215">
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="J215" s="1" t="s">
         <v>466</v>
@@ -14207,28 +14207,28 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0.02222222222222222</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="C216">
         <v>1</v>
       </c>
       <c r="D216">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E216">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="F216">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="G216" t="b">
         <v>1</v>
       </c>
       <c r="H216">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J216" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="K216">
         <v>0.1515151515151515</v>
@@ -14257,28 +14257,28 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.02222222222222222</v>
+        <v>0.02150537634408602</v>
       </c>
       <c r="C217">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D217">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E217">
-        <v>0.9399999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="F217">
-        <v>0.06000000000000005</v>
+        <v>0.25</v>
       </c>
       <c r="G217" t="b">
         <v>1</v>
       </c>
       <c r="H217">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="J217" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K217">
         <v>0.1515151515151515</v>
@@ -14307,25 +14307,25 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>0.02173913043478261</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="C218">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D218">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E218">
-        <v>0.8</v>
+        <v>0.78</v>
       </c>
       <c r="F218">
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="G218" t="b">
         <v>1</v>
       </c>
       <c r="H218">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>467</v>
@@ -14357,25 +14357,25 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.02150537634408602</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="C219">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D219">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E219">
-        <v>0.75</v>
+        <v>0.83</v>
       </c>
       <c r="F219">
-        <v>0.25</v>
+        <v>0.17</v>
       </c>
       <c r="G219" t="b">
         <v>1</v>
       </c>
       <c r="H219">
-        <v>91</v>
+        <v>47</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>468</v>
@@ -14407,28 +14407,28 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>0.02127659574468085</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="C220">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D220">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E220">
-        <v>0.78</v>
+        <v>0.67</v>
       </c>
       <c r="F220">
-        <v>0.22</v>
+        <v>0.33</v>
       </c>
       <c r="G220" t="b">
         <v>1</v>
       </c>
       <c r="H220">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="J220" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K220">
         <v>0.1507246376811594</v>
@@ -14457,28 +14457,28 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0.02083333333333333</v>
+        <v>0.0202020202020202</v>
       </c>
       <c r="C221">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D221">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E221">
-        <v>0.83</v>
+        <v>0.5</v>
       </c>
       <c r="F221">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="G221" t="b">
         <v>1</v>
       </c>
       <c r="H221">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="J221" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K221">
         <v>0.15</v>
@@ -14507,25 +14507,25 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.02083333333333333</v>
+        <v>0.0198019801980198</v>
       </c>
       <c r="C222">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D222">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E222">
-        <v>0.67</v>
+        <v>0.8</v>
       </c>
       <c r="F222">
-        <v>0.33</v>
+        <v>0.2</v>
       </c>
       <c r="G222" t="b">
         <v>1</v>
       </c>
       <c r="H222">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>469</v>
@@ -14557,25 +14557,25 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>0.0202020202020202</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="C223">
         <v>2</v>
       </c>
       <c r="D223">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="E223">
-        <v>0.5</v>
+        <v>0.93</v>
       </c>
       <c r="F223">
-        <v>0.5</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G223" t="b">
         <v>1</v>
       </c>
       <c r="H223">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="J223" s="1" t="s">
         <v>470</v>
@@ -14607,25 +14607,25 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>0.0198019801980198</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="C224">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D224">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E224">
-        <v>0.8</v>
+        <v>0.88</v>
       </c>
       <c r="F224">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="G224" t="b">
         <v>1</v>
       </c>
       <c r="H224">
-        <v>99</v>
+        <v>52</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>471</v>
@@ -14657,25 +14657,25 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>0.01886792452830189</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="C225">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D225">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E225">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F225">
-        <v>0.06999999999999995</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G225" t="b">
         <v>1</v>
       </c>
       <c r="H225">
-        <v>104</v>
+        <v>53</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>472</v>
@@ -14707,25 +14707,25 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>0.01886792452830189</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="C226">
         <v>1</v>
       </c>
       <c r="D226">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E226">
-        <v>0.88</v>
+        <v>0.67</v>
       </c>
       <c r="F226">
-        <v>0.12</v>
+        <v>0.33</v>
       </c>
       <c r="G226" t="b">
         <v>1</v>
       </c>
       <c r="H226">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>473</v>
@@ -14760,25 +14760,25 @@
         <v>0.01851851851851852</v>
       </c>
       <c r="C227">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D227">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E227">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="F227">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G227" t="b">
         <v>1</v>
       </c>
       <c r="H227">
-        <v>53</v>
+        <v>106</v>
       </c>
       <c r="J227" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K227">
         <v>0.1463414634146341</v>
@@ -14813,13 +14813,13 @@
         <v>1</v>
       </c>
       <c r="D228">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E228">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="F228">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="G228" t="b">
         <v>1</v>
@@ -14828,7 +14828,7 @@
         <v>53</v>
       </c>
       <c r="J228" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K228">
         <v>0.1458333333333333</v>
@@ -14860,22 +14860,22 @@
         <v>0.01851851851851852</v>
       </c>
       <c r="C229">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D229">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E229">
-        <v>0.93</v>
+        <v>0.9</v>
       </c>
       <c r="F229">
-        <v>0.06999999999999995</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G229" t="b">
         <v>1</v>
       </c>
       <c r="H229">
-        <v>106</v>
+        <v>53</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>474</v>
@@ -14907,28 +14907,28 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>0.01851851851851852</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="C230">
         <v>1</v>
       </c>
       <c r="D230">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E230">
-        <v>0.75</v>
+        <v>0.89</v>
       </c>
       <c r="F230">
-        <v>0.25</v>
+        <v>0.11</v>
       </c>
       <c r="G230" t="b">
         <v>1</v>
       </c>
       <c r="H230">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J230" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K230">
         <v>0.1451612903225807</v>
@@ -14957,28 +14957,28 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>0.01851851851851852</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="C231">
         <v>1</v>
       </c>
       <c r="D231">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E231">
-        <v>0.9</v>
+        <v>0.92</v>
       </c>
       <c r="F231">
-        <v>0.09999999999999998</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G231" t="b">
         <v>1</v>
       </c>
       <c r="H231">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J231" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K231">
         <v>0.1441441441441441</v>
@@ -15007,28 +15007,28 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>0.01818181818181818</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="C232">
         <v>1</v>
       </c>
       <c r="D232">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E232">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
       <c r="F232">
-        <v>0.11</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G232" t="b">
         <v>1</v>
       </c>
       <c r="H232">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J232" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K232">
         <v>0.1428571428571428</v>
@@ -15057,25 +15057,25 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>0.01785714285714286</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="C233">
         <v>1</v>
       </c>
       <c r="D233">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E233">
-        <v>0.92</v>
+        <v>0.5</v>
       </c>
       <c r="F233">
-        <v>0.07999999999999996</v>
+        <v>0.5</v>
       </c>
       <c r="G233" t="b">
         <v>1</v>
       </c>
       <c r="H233">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>475</v>
@@ -15107,25 +15107,25 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>0.01754385964912281</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="C234">
         <v>1</v>
       </c>
       <c r="D234">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E234">
-        <v>0.91</v>
+        <v>0.5</v>
       </c>
       <c r="F234">
-        <v>0.08999999999999997</v>
+        <v>0.5</v>
       </c>
       <c r="G234" t="b">
         <v>1</v>
       </c>
       <c r="H234">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>476</v>
@@ -15207,25 +15207,25 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>0.01724137931034483</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="C236">
         <v>1</v>
       </c>
       <c r="D236">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E236">
-        <v>0.5</v>
+        <v>0.93</v>
       </c>
       <c r="F236">
-        <v>0.5</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G236" t="b">
         <v>1</v>
       </c>
       <c r="H236">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>478</v>
@@ -15257,25 +15257,25 @@
         <v>242</v>
       </c>
       <c r="B237">
-        <v>0.01724137931034483</v>
+        <v>0.01680672268907563</v>
       </c>
       <c r="C237">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D237">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="E237">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="F237">
-        <v>0.5</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G237" t="b">
         <v>1</v>
       </c>
       <c r="H237">
-        <v>57</v>
+        <v>117</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>479</v>
@@ -15307,25 +15307,25 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>0.01694915254237288</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="C238">
         <v>1</v>
       </c>
       <c r="D238">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E238">
-        <v>0.93</v>
+        <v>0.75</v>
       </c>
       <c r="F238">
-        <v>0.06999999999999995</v>
+        <v>0.25</v>
       </c>
       <c r="G238" t="b">
         <v>1</v>
       </c>
       <c r="H238">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>480</v>
@@ -15357,25 +15357,25 @@
         <v>244</v>
       </c>
       <c r="B239">
-        <v>0.01680672268907563</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="C239">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D239">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E239">
-        <v>0.9</v>
+        <v>0.92</v>
       </c>
       <c r="F239">
-        <v>0.09999999999999998</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G239" t="b">
         <v>1</v>
       </c>
       <c r="H239">
-        <v>117</v>
+        <v>59</v>
       </c>
       <c r="J239" s="1" t="s">
         <v>481</v>
@@ -15413,13 +15413,13 @@
         <v>1</v>
       </c>
       <c r="D240">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="E240">
-        <v>0.75</v>
+        <v>0.99</v>
       </c>
       <c r="F240">
-        <v>0.25</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G240" t="b">
         <v>1</v>
@@ -15457,25 +15457,25 @@
         <v>246</v>
       </c>
       <c r="B241">
-        <v>0.01666666666666667</v>
+        <v>0.01626016260162602</v>
       </c>
       <c r="C241">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D241">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E241">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="F241">
-        <v>0.07999999999999996</v>
+        <v>0.12</v>
       </c>
       <c r="G241" t="b">
         <v>1</v>
       </c>
       <c r="H241">
-        <v>59</v>
+        <v>121</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>483</v>
@@ -15507,25 +15507,25 @@
         <v>247</v>
       </c>
       <c r="B242">
-        <v>0.01666666666666667</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="C242">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D242">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="E242">
-        <v>0.99</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F242">
-        <v>0.01000000000000001</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G242" t="b">
         <v>1</v>
       </c>
       <c r="H242">
-        <v>59</v>
+        <v>124</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>484</v>
@@ -15557,25 +15557,25 @@
         <v>248</v>
       </c>
       <c r="B243">
-        <v>0.01626016260162602</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="C243">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D243">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="E243">
-        <v>0.88</v>
+        <v>0.75</v>
       </c>
       <c r="F243">
-        <v>0.12</v>
+        <v>0.25</v>
       </c>
       <c r="G243" t="b">
         <v>1</v>
       </c>
       <c r="H243">
-        <v>121</v>
+        <v>62</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>485</v>
@@ -15610,22 +15610,22 @@
         <v>0.01587301587301587</v>
       </c>
       <c r="C244">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D244">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="E244">
-        <v>0.9399999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="F244">
-        <v>0.06000000000000005</v>
+        <v>0.25</v>
       </c>
       <c r="G244" t="b">
         <v>1</v>
       </c>
       <c r="H244">
-        <v>124</v>
+        <v>62</v>
       </c>
       <c r="J244" s="1" t="s">
         <v>486</v>
@@ -15657,25 +15657,25 @@
         <v>250</v>
       </c>
       <c r="B245">
-        <v>0.01587301587301587</v>
+        <v>0.015625</v>
       </c>
       <c r="C245">
         <v>1</v>
       </c>
       <c r="D245">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E245">
-        <v>0.75</v>
+        <v>0.93</v>
       </c>
       <c r="F245">
-        <v>0.25</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G245" t="b">
         <v>1</v>
       </c>
       <c r="H245">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J245" s="1" t="s">
         <v>487</v>
@@ -15707,25 +15707,25 @@
         <v>251</v>
       </c>
       <c r="B246">
-        <v>0.01587301587301587</v>
+        <v>0.01492537313432836</v>
       </c>
       <c r="C246">
         <v>1</v>
       </c>
       <c r="D246">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E246">
-        <v>0.75</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F246">
-        <v>0.25</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G246" t="b">
         <v>1</v>
       </c>
       <c r="H246">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="J246" s="1" t="s">
         <v>488</v>
@@ -15757,25 +15757,25 @@
         <v>252</v>
       </c>
       <c r="B247">
-        <v>0.015625</v>
+        <v>0.01408450704225352</v>
       </c>
       <c r="C247">
         <v>1</v>
       </c>
       <c r="D247">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E247">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="F247">
-        <v>0.06999999999999995</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G247" t="b">
         <v>1</v>
       </c>
       <c r="H247">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="J247" s="1" t="s">
         <v>489</v>
@@ -15807,25 +15807,25 @@
         <v>253</v>
       </c>
       <c r="B248">
-        <v>0.01492537313432836</v>
+        <v>0.0136986301369863</v>
       </c>
       <c r="C248">
         <v>1</v>
       </c>
       <c r="D248">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E248">
-        <v>0.9399999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="F248">
-        <v>0.06000000000000005</v>
+        <v>0.25</v>
       </c>
       <c r="G248" t="b">
         <v>1</v>
       </c>
       <c r="H248">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="J248" s="1" t="s">
         <v>490</v>
@@ -15857,25 +15857,25 @@
         <v>254</v>
       </c>
       <c r="B249">
-        <v>0.01408450704225352</v>
+        <v>0.01346801346801347</v>
       </c>
       <c r="C249">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D249">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="E249">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="F249">
-        <v>0.04000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G249" t="b">
         <v>1</v>
       </c>
       <c r="H249">
-        <v>70</v>
+        <v>293</v>
       </c>
       <c r="J249" s="1" t="s">
         <v>491</v>
@@ -15907,7 +15907,7 @@
         <v>255</v>
       </c>
       <c r="B250">
-        <v>0.0136986301369863</v>
+        <v>0.0131578947368421</v>
       </c>
       <c r="C250">
         <v>1</v>
@@ -15925,7 +15925,7 @@
         <v>1</v>
       </c>
       <c r="H250">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J250" s="1" t="s">
         <v>492</v>
@@ -15957,25 +15957,25 @@
         <v>256</v>
       </c>
       <c r="B251">
-        <v>0.01346801346801347</v>
+        <v>0.0131578947368421</v>
       </c>
       <c r="C251">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D251">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="E251">
-        <v>0.93</v>
+        <v>0.8</v>
       </c>
       <c r="F251">
-        <v>0.06999999999999995</v>
+        <v>0.2</v>
       </c>
       <c r="G251" t="b">
         <v>1</v>
       </c>
       <c r="H251">
-        <v>293</v>
+        <v>75</v>
       </c>
       <c r="J251" s="1" t="s">
         <v>493</v>
@@ -16007,28 +16007,28 @@
         <v>257</v>
       </c>
       <c r="B252">
-        <v>0.0131578947368421</v>
+        <v>0.01204819277108434</v>
       </c>
       <c r="C252">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D252">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E252">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F252">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G252" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H252">
-        <v>75</v>
+        <v>164</v>
       </c>
       <c r="J252" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K252">
         <v>0.1428571428571428</v>
@@ -16057,25 +16057,25 @@
         <v>258</v>
       </c>
       <c r="B253">
-        <v>0.0131578947368421</v>
+        <v>0.01204819277108434</v>
       </c>
       <c r="C253">
         <v>1</v>
       </c>
       <c r="D253">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="E253">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="F253">
-        <v>0.2</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G253" t="b">
         <v>1</v>
       </c>
       <c r="H253">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="J253" s="1" t="s">
         <v>494</v>
@@ -16107,25 +16107,25 @@
         <v>259</v>
       </c>
       <c r="B254">
-        <v>0.01204819277108434</v>
+        <v>0.0119047619047619</v>
       </c>
       <c r="C254">
         <v>2</v>
       </c>
       <c r="D254">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="E254">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="F254">
-        <v>1</v>
+        <v>0.11</v>
       </c>
       <c r="G254" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H254">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="J254" s="1" t="s">
         <v>495</v>
@@ -16157,25 +16157,25 @@
         <v>260</v>
       </c>
       <c r="B255">
-        <v>0.01204819277108434</v>
+        <v>0.01111111111111111</v>
       </c>
       <c r="C255">
         <v>1</v>
       </c>
       <c r="D255">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="E255">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F255">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G255" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H255">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="J255" s="1" t="s">
         <v>496</v>
@@ -16207,25 +16207,25 @@
         <v>261</v>
       </c>
       <c r="B256">
-        <v>0.0119047619047619</v>
+        <v>0.01098901098901099</v>
       </c>
       <c r="C256">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D256">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E256">
-        <v>0.89</v>
+        <v>0.86</v>
       </c>
       <c r="F256">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
       <c r="G256" t="b">
         <v>1</v>
       </c>
       <c r="H256">
-        <v>166</v>
+        <v>90</v>
       </c>
       <c r="J256" s="1" t="s">
         <v>497</v>
@@ -16257,13 +16257,13 @@
         <v>262</v>
       </c>
       <c r="B257">
-        <v>0.01111111111111111</v>
+        <v>0.01058201058201058</v>
       </c>
       <c r="C257">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D257">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E257">
         <v>0</v>
@@ -16275,7 +16275,7 @@
         <v>0</v>
       </c>
       <c r="H257">
-        <v>89</v>
+        <v>187</v>
       </c>
       <c r="J257" s="1" t="s">
         <v>498</v>
@@ -16307,25 +16307,25 @@
         <v>263</v>
       </c>
       <c r="B258">
-        <v>0.01098901098901099</v>
+        <v>0.01041666666666667</v>
       </c>
       <c r="C258">
         <v>1</v>
       </c>
       <c r="D258">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E258">
-        <v>0.86</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F258">
-        <v>0.14</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G258" t="b">
         <v>1</v>
       </c>
       <c r="H258">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="J258" s="1" t="s">
         <v>499</v>
@@ -16357,25 +16357,25 @@
         <v>264</v>
       </c>
       <c r="B259">
-        <v>0.01058201058201058</v>
+        <v>0.01041666666666667</v>
       </c>
       <c r="C259">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D259">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E259">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F259">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G259" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H259">
-        <v>187</v>
+        <v>95</v>
       </c>
       <c r="J259" s="1" t="s">
         <v>500</v>
@@ -16407,25 +16407,25 @@
         <v>265</v>
       </c>
       <c r="B260">
-        <v>0.01041666666666667</v>
+        <v>0.01030927835051546</v>
       </c>
       <c r="C260">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D260">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="E260">
-        <v>0.9399999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="F260">
-        <v>0.06000000000000005</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G260" t="b">
         <v>1</v>
       </c>
       <c r="H260">
-        <v>95</v>
+        <v>576</v>
       </c>
       <c r="J260" s="1" t="s">
         <v>501</v>
@@ -16457,25 +16457,25 @@
         <v>266</v>
       </c>
       <c r="B261">
-        <v>0.01041666666666667</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="C261">
         <v>1</v>
       </c>
       <c r="D261">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E261">
-        <v>0.8</v>
+        <v>0.91</v>
       </c>
       <c r="F261">
-        <v>0.2</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G261" t="b">
         <v>1</v>
       </c>
       <c r="H261">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="J261" s="1" t="s">
         <v>502</v>
@@ -16507,25 +16507,25 @@
         <v>267</v>
       </c>
       <c r="B262">
-        <v>0.01030927835051546</v>
+        <v>0.009635974304068522</v>
       </c>
       <c r="C262">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D262">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="E262">
-        <v>0.92</v>
+        <v>0.79</v>
       </c>
       <c r="F262">
-        <v>0.07999999999999996</v>
+        <v>0.21</v>
       </c>
       <c r="G262" t="b">
         <v>1</v>
       </c>
       <c r="H262">
-        <v>576</v>
+        <v>925</v>
       </c>
       <c r="J262" s="1" t="s">
         <v>503</v>
@@ -16557,28 +16557,28 @@
         <v>268</v>
       </c>
       <c r="B263">
-        <v>0.0101010101010101</v>
+        <v>0.009523809523809525</v>
       </c>
       <c r="C263">
         <v>1</v>
       </c>
       <c r="D263">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E263">
-        <v>0.91</v>
+        <v>0.5</v>
       </c>
       <c r="F263">
-        <v>0.08999999999999997</v>
+        <v>0.5</v>
       </c>
       <c r="G263" t="b">
         <v>1</v>
       </c>
       <c r="H263">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="J263" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K263">
         <v>0.1428571428571428</v>
@@ -16607,25 +16607,25 @@
         <v>269</v>
       </c>
       <c r="B264">
-        <v>0.009635974304068522</v>
+        <v>0.009463722397476341</v>
       </c>
       <c r="C264">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D264">
-        <v>43</v>
+        <v>104</v>
       </c>
       <c r="E264">
-        <v>0.79</v>
+        <v>0.97</v>
       </c>
       <c r="F264">
-        <v>0.21</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G264" t="b">
         <v>1</v>
       </c>
       <c r="H264">
-        <v>925</v>
+        <v>314</v>
       </c>
       <c r="J264" s="1" t="s">
         <v>504</v>
@@ -16657,25 +16657,25 @@
         <v>270</v>
       </c>
       <c r="B265">
-        <v>0.009523809523809525</v>
+        <v>0.009433962264150943</v>
       </c>
       <c r="C265">
         <v>1</v>
       </c>
       <c r="D265">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E265">
-        <v>0.5</v>
+        <v>0.88</v>
       </c>
       <c r="F265">
-        <v>0.5</v>
+        <v>0.12</v>
       </c>
       <c r="G265" t="b">
         <v>1</v>
       </c>
       <c r="H265">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J265" s="1" t="s">
         <v>505</v>
@@ -16707,25 +16707,25 @@
         <v>271</v>
       </c>
       <c r="B266">
-        <v>0.009463722397476341</v>
+        <v>0.009389671361502348</v>
       </c>
       <c r="C266">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D266">
-        <v>104</v>
+        <v>26</v>
       </c>
       <c r="E266">
-        <v>0.97</v>
+        <v>0.92</v>
       </c>
       <c r="F266">
-        <v>0.03000000000000003</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G266" t="b">
         <v>1</v>
       </c>
       <c r="H266">
-        <v>314</v>
+        <v>211</v>
       </c>
       <c r="J266" s="1" t="s">
         <v>506</v>
@@ -16757,25 +16757,25 @@
         <v>272</v>
       </c>
       <c r="B267">
-        <v>0.009433962264150943</v>
+        <v>0.009345794392523364</v>
       </c>
       <c r="C267">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D267">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E267">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="F267">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="G267" t="b">
         <v>1</v>
       </c>
       <c r="H267">
-        <v>105</v>
+        <v>212</v>
       </c>
       <c r="J267" s="1" t="s">
         <v>507</v>
@@ -16807,13 +16807,13 @@
         <v>273</v>
       </c>
       <c r="B268">
-        <v>0.009389671361502348</v>
+        <v>0.009345794392523364</v>
       </c>
       <c r="C268">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D268">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E268">
         <v>0.92</v>
@@ -16825,7 +16825,7 @@
         <v>1</v>
       </c>
       <c r="H268">
-        <v>211</v>
+        <v>106</v>
       </c>
       <c r="J268" s="1" t="s">
         <v>508</v>
@@ -16857,25 +16857,25 @@
         <v>274</v>
       </c>
       <c r="B269">
-        <v>0.009345794392523364</v>
+        <v>0.009009009009009009</v>
       </c>
       <c r="C269">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D269">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E269">
-        <v>0.87</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F269">
-        <v>0.13</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G269" t="b">
         <v>1</v>
       </c>
       <c r="H269">
-        <v>212</v>
+        <v>110</v>
       </c>
       <c r="J269" s="1" t="s">
         <v>509</v>
@@ -16907,28 +16907,28 @@
         <v>275</v>
       </c>
       <c r="B270">
-        <v>0.009345794392523364</v>
+        <v>0.009009009009009009</v>
       </c>
       <c r="C270">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D270">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="E270">
-        <v>0.92</v>
+        <v>0.99</v>
       </c>
       <c r="F270">
-        <v>0.07999999999999996</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G270" t="b">
         <v>1</v>
       </c>
       <c r="H270">
-        <v>106</v>
+        <v>220</v>
       </c>
       <c r="J270" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K270">
         <v>0.1368421052631579</v>
@@ -16957,25 +16957,25 @@
         <v>276</v>
       </c>
       <c r="B271">
-        <v>0.009009009009009009</v>
+        <v>0.008928571428571428</v>
       </c>
       <c r="C271">
         <v>1</v>
       </c>
       <c r="D271">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="E271">
-        <v>0.9399999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="F271">
-        <v>0.06000000000000005</v>
+        <v>0.25</v>
       </c>
       <c r="G271" t="b">
         <v>1</v>
       </c>
       <c r="H271">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J271" s="1" t="s">
         <v>510</v>
@@ -17007,25 +17007,25 @@
         <v>277</v>
       </c>
       <c r="B272">
-        <v>0.009009009009009009</v>
+        <v>0.008928571428571428</v>
       </c>
       <c r="C272">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D272">
-        <v>163</v>
+        <v>18</v>
       </c>
       <c r="E272">
-        <v>0.99</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F272">
-        <v>0.01000000000000001</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G272" t="b">
         <v>1</v>
       </c>
       <c r="H272">
-        <v>220</v>
+        <v>111</v>
       </c>
       <c r="J272" s="1" t="s">
         <v>511</v>
@@ -17057,25 +17057,25 @@
         <v>278</v>
       </c>
       <c r="B273">
-        <v>0.008928571428571428</v>
+        <v>0.008547008547008548</v>
       </c>
       <c r="C273">
         <v>1</v>
       </c>
       <c r="D273">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="E273">
-        <v>0.75</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F273">
-        <v>0.25</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G273" t="b">
         <v>1</v>
       </c>
       <c r="H273">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="J273" s="1" t="s">
         <v>512</v>
@@ -17107,25 +17107,25 @@
         <v>279</v>
       </c>
       <c r="B274">
-        <v>0.008928571428571428</v>
+        <v>0.008510638297872341</v>
       </c>
       <c r="C274">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D274">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E274">
-        <v>0.9399999999999999</v>
+        <v>0.33</v>
       </c>
       <c r="F274">
-        <v>0.06000000000000005</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G274" t="b">
         <v>1</v>
       </c>
       <c r="H274">
-        <v>111</v>
+        <v>233</v>
       </c>
       <c r="J274" s="1" t="s">
         <v>513</v>
@@ -17157,25 +17157,25 @@
         <v>280</v>
       </c>
       <c r="B275">
-        <v>0.008547008547008548</v>
+        <v>0.008474576271186441</v>
       </c>
       <c r="C275">
         <v>1</v>
       </c>
       <c r="D275">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E275">
-        <v>0.9399999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="F275">
-        <v>0.06000000000000005</v>
+        <v>0.14</v>
       </c>
       <c r="G275" t="b">
         <v>1</v>
       </c>
       <c r="H275">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J275" s="1" t="s">
         <v>514</v>
@@ -17207,25 +17207,25 @@
         <v>281</v>
       </c>
       <c r="B276">
-        <v>0.008510638297872341</v>
+        <v>0.008403361344537815</v>
       </c>
       <c r="C276">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D276">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="E276">
-        <v>0.33</v>
+        <v>0.98</v>
       </c>
       <c r="F276">
-        <v>0.6699999999999999</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G276" t="b">
         <v>1</v>
       </c>
       <c r="H276">
-        <v>233</v>
+        <v>118</v>
       </c>
       <c r="J276" s="1" t="s">
         <v>515</v>
@@ -17257,25 +17257,25 @@
         <v>282</v>
       </c>
       <c r="B277">
-        <v>0.008474576271186441</v>
+        <v>0.008</v>
       </c>
       <c r="C277">
         <v>1</v>
       </c>
       <c r="D277">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E277">
-        <v>0.86</v>
+        <v>0.5</v>
       </c>
       <c r="F277">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="G277" t="b">
         <v>1</v>
       </c>
       <c r="H277">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="J277" s="1" t="s">
         <v>516</v>
@@ -17307,28 +17307,28 @@
         <v>283</v>
       </c>
       <c r="B278">
-        <v>0.008403361344537815</v>
+        <v>0.007936507936507936</v>
       </c>
       <c r="C278">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D278">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="E278">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="F278">
-        <v>0.02000000000000002</v>
+        <v>1</v>
       </c>
       <c r="G278" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H278">
-        <v>118</v>
+        <v>250</v>
       </c>
       <c r="J278" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K278">
         <v>0.1333333333333333</v>
@@ -17357,28 +17357,28 @@
         <v>284</v>
       </c>
       <c r="B279">
-        <v>0.008</v>
+        <v>0.0078125</v>
       </c>
       <c r="C279">
         <v>1</v>
       </c>
       <c r="D279">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E279">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="F279">
-        <v>0.5</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G279" t="b">
         <v>1</v>
       </c>
       <c r="H279">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="J279" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K279">
         <v>0.1333333333333333</v>
@@ -17407,25 +17407,25 @@
         <v>285</v>
       </c>
       <c r="B280">
-        <v>0.007936507936507936</v>
+        <v>0.007518796992481203</v>
       </c>
       <c r="C280">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D280">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E280">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F280">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G280" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H280">
-        <v>250</v>
+        <v>132</v>
       </c>
       <c r="J280" s="1" t="s">
         <v>83</v>
@@ -17457,25 +17457,25 @@
         <v>286</v>
       </c>
       <c r="B281">
-        <v>0.0078125</v>
+        <v>0.007462686567164179</v>
       </c>
       <c r="C281">
         <v>1</v>
       </c>
       <c r="D281">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E281">
-        <v>0.9</v>
+        <v>0.97</v>
       </c>
       <c r="F281">
-        <v>0.09999999999999998</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G281" t="b">
         <v>1</v>
       </c>
       <c r="H281">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="J281" s="1" t="s">
         <v>517</v>
@@ -17507,25 +17507,25 @@
         <v>287</v>
       </c>
       <c r="B282">
-        <v>0.007518796992481203</v>
+        <v>0.007462686567164179</v>
       </c>
       <c r="C282">
         <v>1</v>
       </c>
       <c r="D282">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E282">
-        <v>0.93</v>
+        <v>0.75</v>
       </c>
       <c r="F282">
-        <v>0.06999999999999995</v>
+        <v>0.25</v>
       </c>
       <c r="G282" t="b">
         <v>1</v>
       </c>
       <c r="H282">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J282" s="1" t="s">
         <v>518</v>
@@ -17557,25 +17557,25 @@
         <v>288</v>
       </c>
       <c r="B283">
-        <v>0.007462686567164179</v>
+        <v>0.007458710708577517</v>
       </c>
       <c r="C283">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D283">
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="E283">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="F283">
-        <v>0.03000000000000003</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G283" t="b">
         <v>1</v>
       </c>
       <c r="H283">
-        <v>133</v>
+        <v>1863</v>
       </c>
       <c r="J283" s="1" t="s">
         <v>519</v>
@@ -17607,28 +17607,28 @@
         <v>289</v>
       </c>
       <c r="B284">
-        <v>0.007462686567164179</v>
+        <v>0.006825938566552901</v>
       </c>
       <c r="C284">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D284">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="E284">
-        <v>0.75</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F284">
-        <v>0.25</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G284" t="b">
         <v>1</v>
       </c>
       <c r="H284">
-        <v>133</v>
+        <v>291</v>
       </c>
       <c r="J284" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K284">
         <v>0.1328125</v>
@@ -17657,25 +17657,25 @@
         <v>290</v>
       </c>
       <c r="B285">
-        <v>0.007458710708577517</v>
+        <v>0.006578947368421052</v>
       </c>
       <c r="C285">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D285">
-        <v>280</v>
+        <v>13</v>
       </c>
       <c r="E285">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="F285">
-        <v>0.05000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G285" t="b">
         <v>1</v>
       </c>
       <c r="H285">
-        <v>1863</v>
+        <v>151</v>
       </c>
       <c r="J285" s="1" t="s">
         <v>520</v>
@@ -17707,25 +17707,25 @@
         <v>291</v>
       </c>
       <c r="B286">
-        <v>0.006825938566552901</v>
+        <v>0.00619533527696793</v>
       </c>
       <c r="C286">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D286">
-        <v>36</v>
+        <v>380</v>
       </c>
       <c r="E286">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="F286">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G286" t="b">
         <v>1</v>
       </c>
       <c r="H286">
-        <v>291</v>
+        <v>2727</v>
       </c>
       <c r="J286" s="1" t="s">
         <v>521</v>
@@ -17757,25 +17757,25 @@
         <v>292</v>
       </c>
       <c r="B287">
-        <v>0.006578947368421052</v>
+        <v>0.005747126436781609</v>
       </c>
       <c r="C287">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D287">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="E287">
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
       <c r="F287">
-        <v>0.07999999999999996</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G287" t="b">
         <v>1</v>
       </c>
       <c r="H287">
-        <v>151</v>
+        <v>346</v>
       </c>
       <c r="J287" s="1" t="s">
         <v>522</v>
@@ -17807,13 +17807,13 @@
         <v>293</v>
       </c>
       <c r="B288">
-        <v>0.00619533527696793</v>
+        <v>0.005319148936170213</v>
       </c>
       <c r="C288">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D288">
-        <v>380</v>
+        <v>28</v>
       </c>
       <c r="E288">
         <v>0.96</v>
@@ -17825,7 +17825,7 @@
         <v>1</v>
       </c>
       <c r="H288">
-        <v>2727</v>
+        <v>187</v>
       </c>
       <c r="J288" s="1" t="s">
         <v>523</v>
@@ -17857,25 +17857,25 @@
         <v>294</v>
       </c>
       <c r="B289">
-        <v>0.005747126436781609</v>
+        <v>0.005076142131979695</v>
       </c>
       <c r="C289">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D289">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="E289">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="F289">
-        <v>0.03000000000000003</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G289" t="b">
         <v>1</v>
       </c>
       <c r="H289">
-        <v>346</v>
+        <v>784</v>
       </c>
       <c r="J289" s="1" t="s">
         <v>524</v>
@@ -17907,13 +17907,13 @@
         <v>295</v>
       </c>
       <c r="B290">
-        <v>0.005319148936170213</v>
+        <v>0.005050505050505051</v>
       </c>
       <c r="C290">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D290">
-        <v>28</v>
+        <v>113</v>
       </c>
       <c r="E290">
         <v>0.96</v>
@@ -17925,7 +17925,7 @@
         <v>1</v>
       </c>
       <c r="H290">
-        <v>187</v>
+        <v>788</v>
       </c>
       <c r="J290" s="1" t="s">
         <v>525</v>
@@ -17957,28 +17957,28 @@
         <v>296</v>
       </c>
       <c r="B291">
-        <v>0.005076142131979695</v>
+        <v>0.004002668445630421</v>
       </c>
       <c r="C291">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D291">
-        <v>83</v>
+        <v>215</v>
       </c>
       <c r="E291">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F291">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G291" t="b">
         <v>1</v>
       </c>
       <c r="H291">
-        <v>784</v>
+        <v>2986</v>
       </c>
       <c r="J291" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K291">
         <v>0.1290322580645161</v>
@@ -18007,28 +18007,28 @@
         <v>297</v>
       </c>
       <c r="B292">
-        <v>0.005050505050505051</v>
+        <v>0.003952569169960474</v>
       </c>
       <c r="C292">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D292">
-        <v>113</v>
+        <v>138</v>
       </c>
       <c r="E292">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="F292">
-        <v>0.04000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G292" t="b">
         <v>1</v>
       </c>
       <c r="H292">
-        <v>788</v>
+        <v>756</v>
       </c>
       <c r="J292" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K292">
         <v>0.1278195488721804</v>
@@ -18057,28 +18057,28 @@
         <v>298</v>
       </c>
       <c r="B293">
-        <v>0.004002668445630421</v>
+        <v>0.003875968992248062</v>
       </c>
       <c r="C293">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D293">
-        <v>215</v>
+        <v>53</v>
       </c>
       <c r="E293">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="F293">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G293" t="b">
         <v>1</v>
       </c>
       <c r="H293">
-        <v>2986</v>
+        <v>514</v>
       </c>
       <c r="J293" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K293">
         <v>0.126984126984127</v>
@@ -18107,28 +18107,28 @@
         <v>299</v>
       </c>
       <c r="B294">
-        <v>0.003952569169960474</v>
+        <v>0.003831417624521073</v>
       </c>
       <c r="C294">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D294">
-        <v>138</v>
+        <v>25</v>
       </c>
       <c r="E294">
-        <v>0.98</v>
+        <v>0.92</v>
       </c>
       <c r="F294">
-        <v>0.02000000000000002</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G294" t="b">
         <v>1</v>
       </c>
       <c r="H294">
-        <v>756</v>
+        <v>520</v>
       </c>
       <c r="J294" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K294">
         <v>0.1261682242990654</v>
@@ -18157,13 +18157,13 @@
         <v>300</v>
       </c>
       <c r="B295">
-        <v>0.003875968992248062</v>
+        <v>0.003546099290780142</v>
       </c>
       <c r="C295">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D295">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="E295">
         <v>0.96</v>
@@ -18175,7 +18175,7 @@
         <v>1</v>
       </c>
       <c r="H295">
-        <v>514</v>
+        <v>281</v>
       </c>
       <c r="J295" s="1" t="s">
         <v>526</v>
@@ -18207,25 +18207,25 @@
         <v>301</v>
       </c>
       <c r="B296">
-        <v>0.003831417624521073</v>
+        <v>0.003424657534246575</v>
       </c>
       <c r="C296">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D296">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="E296">
-        <v>0.92</v>
+        <v>0.5</v>
       </c>
       <c r="F296">
-        <v>0.07999999999999996</v>
+        <v>0.5</v>
       </c>
       <c r="G296" t="b">
         <v>1</v>
       </c>
       <c r="H296">
-        <v>520</v>
+        <v>291</v>
       </c>
       <c r="J296" s="1" t="s">
         <v>527</v>
@@ -18257,13 +18257,13 @@
         <v>302</v>
       </c>
       <c r="B297">
-        <v>0.003546099290780142</v>
+        <v>0.002762430939226519</v>
       </c>
       <c r="C297">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D297">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="E297">
         <v>0.96</v>
@@ -18275,7 +18275,7 @@
         <v>1</v>
       </c>
       <c r="H297">
-        <v>281</v>
+        <v>1083</v>
       </c>
       <c r="J297" s="1" t="s">
         <v>528</v>
@@ -18307,25 +18307,25 @@
         <v>303</v>
       </c>
       <c r="B298">
-        <v>0.003424657534246575</v>
+        <v>0.002336448598130841</v>
       </c>
       <c r="C298">
         <v>1</v>
       </c>
       <c r="D298">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="E298">
-        <v>0.5</v>
+        <v>0.98</v>
       </c>
       <c r="F298">
-        <v>0.5</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G298" t="b">
         <v>1</v>
       </c>
       <c r="H298">
-        <v>291</v>
+        <v>427</v>
       </c>
       <c r="J298" s="1" t="s">
         <v>529</v>
@@ -18357,25 +18357,25 @@
         <v>304</v>
       </c>
       <c r="B299">
-        <v>0.002762430939226519</v>
+        <v>0.002222222222222222</v>
       </c>
       <c r="C299">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D299">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="E299">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="F299">
-        <v>0.04000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G299" t="b">
         <v>1</v>
       </c>
       <c r="H299">
-        <v>1083</v>
+        <v>449</v>
       </c>
       <c r="J299" s="1" t="s">
         <v>530</v>
@@ -18403,30 +18403,6 @@
       </c>
     </row>
     <row r="300" spans="1:17">
-      <c r="A300" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="B300">
-        <v>0.002336448598130841</v>
-      </c>
-      <c r="C300">
-        <v>1</v>
-      </c>
-      <c r="D300">
-        <v>59</v>
-      </c>
-      <c r="E300">
-        <v>0.98</v>
-      </c>
-      <c r="F300">
-        <v>0.02000000000000002</v>
-      </c>
-      <c r="G300" t="b">
-        <v>1</v>
-      </c>
-      <c r="H300">
-        <v>427</v>
-      </c>
       <c r="J300" s="1" t="s">
         <v>531</v>
       </c>
@@ -18453,30 +18429,6 @@
       </c>
     </row>
     <row r="301" spans="1:17">
-      <c r="A301" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="B301">
-        <v>0.002222222222222222</v>
-      </c>
-      <c r="C301">
-        <v>1</v>
-      </c>
-      <c r="D301">
-        <v>15</v>
-      </c>
-      <c r="E301">
-        <v>0.93</v>
-      </c>
-      <c r="F301">
-        <v>0.06999999999999995</v>
-      </c>
-      <c r="G301" t="b">
-        <v>1</v>
-      </c>
-      <c r="H301">
-        <v>449</v>
-      </c>
       <c r="J301" s="1" t="s">
         <v>532</v>
       </c>
@@ -19206,7 +19158,7 @@
     </row>
     <row r="329" spans="10:17">
       <c r="J329" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K329">
         <v>0.1249412869891968</v>
@@ -19258,7 +19210,7 @@
     </row>
     <row r="331" spans="10:17">
       <c r="J331" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K331">
         <v>0.1215161649944259</v>
@@ -19362,7 +19314,7 @@
     </row>
     <row r="335" spans="10:17">
       <c r="J335" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="K335">
         <v>0.1195876288659794</v>
@@ -19388,7 +19340,7 @@
     </row>
     <row r="336" spans="10:17">
       <c r="J336" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K336">
         <v>0.1186440677966102</v>
@@ -19518,7 +19470,7 @@
     </row>
     <row r="341" spans="10:17">
       <c r="J341" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="K341">
         <v>0.1174757281553398</v>
@@ -19570,7 +19522,7 @@
     </row>
     <row r="343" spans="10:17">
       <c r="J343" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K343">
         <v>0.1153846153846154</v>
@@ -19778,7 +19730,7 @@
     </row>
     <row r="351" spans="10:17">
       <c r="J351" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K351">
         <v>0.1111111111111111</v>
@@ -20116,7 +20068,7 @@
     </row>
     <row r="364" spans="10:17">
       <c r="J364" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K364">
         <v>0.1111111111111111</v>
@@ -20428,7 +20380,7 @@
     </row>
     <row r="376" spans="10:17">
       <c r="J376" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K376">
         <v>0.1102941176470588</v>
@@ -20532,7 +20484,7 @@
     </row>
     <row r="380" spans="10:17">
       <c r="J380" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K380">
         <v>0.1071428571428571</v>
@@ -20610,7 +20562,7 @@
     </row>
     <row r="383" spans="10:17">
       <c r="J383" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K383">
         <v>0.1055900621118012</v>
@@ -20688,7 +20640,7 @@
     </row>
     <row r="386" spans="10:17">
       <c r="J386" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K386">
         <v>0.1046153846153846</v>
@@ -20792,7 +20744,7 @@
     </row>
     <row r="390" spans="10:17">
       <c r="J390" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K390">
         <v>0.1021276595744681</v>
@@ -20870,7 +20822,7 @@
     </row>
     <row r="393" spans="10:17">
       <c r="J393" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K393">
         <v>0.1016949152542373</v>
@@ -21832,7 +21784,7 @@
     </row>
     <row r="430" spans="10:17">
       <c r="J430" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K430">
         <v>0.09615384615384616</v>
@@ -21858,7 +21810,7 @@
     </row>
     <row r="431" spans="10:17">
       <c r="J431" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K431">
         <v>0.0958904109589041</v>
@@ -22092,7 +22044,7 @@
     </row>
     <row r="440" spans="10:17">
       <c r="J440" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K440">
         <v>0.09289617486338798</v>
@@ -22144,7 +22096,7 @@
     </row>
     <row r="442" spans="10:17">
       <c r="J442" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K442">
         <v>0.09259259259259259</v>
@@ -22170,7 +22122,7 @@
     </row>
     <row r="443" spans="10:17">
       <c r="J443" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K443">
         <v>0.09154113557358054</v>
@@ -22404,7 +22356,7 @@
     </row>
     <row r="452" spans="10:17">
       <c r="J452" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K452">
         <v>0.09090909090909091</v>
@@ -22976,7 +22928,7 @@
     </row>
     <row r="474" spans="10:17">
       <c r="J474" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="K474">
         <v>0.09026548672566372</v>
@@ -23106,7 +23058,7 @@
     </row>
     <row r="479" spans="10:17">
       <c r="J479" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K479">
         <v>0.08695652173913043</v>
@@ -23184,7 +23136,7 @@
     </row>
     <row r="482" spans="10:17">
       <c r="J482" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K482">
         <v>0.08695652173913043</v>
@@ -23340,7 +23292,7 @@
     </row>
     <row r="488" spans="10:17">
       <c r="J488" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K488">
         <v>0.08469055374592833</v>
@@ -23704,7 +23656,7 @@
     </row>
     <row r="502" spans="10:17">
       <c r="J502" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K502">
         <v>0.08333333333333333</v>
@@ -24016,7 +23968,7 @@
     </row>
     <row r="514" spans="10:17">
       <c r="J514" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K514">
         <v>0.08163265306122448</v>
@@ -24172,7 +24124,7 @@
     </row>
     <row r="520" spans="10:17">
       <c r="J520" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K520">
         <v>0.08</v>
@@ -24640,7 +24592,7 @@
     </row>
     <row r="538" spans="10:17">
       <c r="J538" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K538">
         <v>0.07692307692307693</v>
@@ -24848,7 +24800,7 @@
     </row>
     <row r="546" spans="10:17">
       <c r="J546" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K546">
         <v>0.07476635514018691</v>
@@ -24952,7 +24904,7 @@
     </row>
     <row r="550" spans="10:17">
       <c r="J550" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K550">
         <v>0.0736196319018405</v>
@@ -25238,7 +25190,7 @@
     </row>
     <row r="561" spans="10:17">
       <c r="J561" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K561">
         <v>0.07142857142857142</v>
@@ -25316,7 +25268,7 @@
     </row>
     <row r="564" spans="10:17">
       <c r="J564" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K564">
         <v>0.07142857142857142</v>
@@ -25628,7 +25580,7 @@
     </row>
     <row r="576" spans="10:17">
       <c r="J576" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K576">
         <v>0.0707070707070707</v>
@@ -25862,7 +25814,7 @@
     </row>
     <row r="585" spans="10:17">
       <c r="J585" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K585">
         <v>0.06818181818181818</v>
@@ -26096,7 +26048,7 @@
     </row>
     <row r="594" spans="10:17">
       <c r="J594" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K594">
         <v>0.06666666666666667</v>
@@ -26512,7 +26464,7 @@
     </row>
     <row r="610" spans="10:17">
       <c r="J610" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K610">
         <v>0.06617647058823529</v>
@@ -26590,7 +26542,7 @@
     </row>
     <row r="613" spans="10:17">
       <c r="J613" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K613">
         <v>0.06476683937823834</v>
@@ -26642,7 +26594,7 @@
     </row>
     <row r="615" spans="10:17">
       <c r="J615" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K615">
         <v>0.06451612903225806</v>
@@ -26850,7 +26802,7 @@
     </row>
     <row r="623" spans="10:17">
       <c r="J623" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K623">
         <v>0.06382978723404255</v>
@@ -26876,7 +26828,7 @@
     </row>
     <row r="624" spans="10:17">
       <c r="J624" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K624">
         <v>0.0636563185951709</v>
@@ -27006,7 +26958,7 @@
     </row>
     <row r="629" spans="10:17">
       <c r="J629" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K629">
         <v>0.0625</v>
@@ -27032,7 +26984,7 @@
     </row>
     <row r="630" spans="10:17">
       <c r="J630" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K630">
         <v>0.0625</v>
@@ -27318,7 +27270,7 @@
     </row>
     <row r="641" spans="10:17">
       <c r="J641" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K641">
         <v>0.06185567010309279</v>
@@ -27344,7 +27296,7 @@
     </row>
     <row r="642" spans="10:17">
       <c r="J642" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K642">
         <v>0.06060606060606061</v>
@@ -27968,7 +27920,7 @@
     </row>
     <row r="666" spans="10:17">
       <c r="J666" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K666">
         <v>0.05777777777777778</v>
@@ -28202,7 +28154,7 @@
     </row>
     <row r="675" spans="10:17">
       <c r="J675" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K675">
         <v>0.05555555555555555</v>
@@ -28306,7 +28258,7 @@
     </row>
     <row r="679" spans="10:17">
       <c r="J679" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K679">
         <v>0.05555555555555555</v>
@@ -28514,7 +28466,7 @@
     </row>
     <row r="687" spans="10:17">
       <c r="J687" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K687">
         <v>0.05357142857142857</v>
@@ -28540,7 +28492,7 @@
     </row>
     <row r="688" spans="10:17">
       <c r="J688" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K688">
         <v>0.05357142857142857</v>
@@ -28826,7 +28778,7 @@
     </row>
     <row r="699" spans="10:17">
       <c r="J699" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K699">
         <v>0.05263157894736842</v>
@@ -28956,7 +28908,7 @@
     </row>
     <row r="704" spans="10:17">
       <c r="J704" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K704">
         <v>0.05263157894736842</v>
@@ -29008,7 +28960,7 @@
     </row>
     <row r="706" spans="10:17">
       <c r="J706" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K706">
         <v>0.05063291139240506</v>
@@ -29216,7 +29168,7 @@
     </row>
     <row r="714" spans="10:17">
       <c r="J714" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K714">
         <v>0.05</v>
@@ -29476,7 +29428,7 @@
     </row>
     <row r="724" spans="10:17">
       <c r="J724" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K724">
         <v>0.04878048780487805</v>
@@ -29502,7 +29454,7 @@
     </row>
     <row r="725" spans="10:17">
       <c r="J725" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K725">
         <v>0.04838709677419355</v>
@@ -29840,7 +29792,7 @@
     </row>
     <row r="738" spans="10:17">
       <c r="J738" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K738">
         <v>0.04615384615384616</v>
@@ -29866,7 +29818,7 @@
     </row>
     <row r="739" spans="10:17">
       <c r="J739" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K739">
         <v>0.04615384615384616</v>
@@ -29944,7 +29896,7 @@
     </row>
     <row r="742" spans="10:17">
       <c r="J742" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K742">
         <v>0.04545454545454546</v>
@@ -30100,7 +30052,7 @@
     </row>
     <row r="748" spans="10:17">
       <c r="J748" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K748">
         <v>0.04444444444444445</v>
@@ -30386,7 +30338,7 @@
     </row>
     <row r="759" spans="10:17">
       <c r="J759" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K759">
         <v>0.0423572744014733</v>
@@ -30698,7 +30650,7 @@
     </row>
     <row r="771" spans="10:17">
       <c r="J771" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K771">
         <v>0.04081632653061224</v>
@@ -30750,7 +30702,7 @@
     </row>
     <row r="773" spans="10:17">
       <c r="J773" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K773">
         <v>0.04040404040404041</v>
@@ -30802,7 +30754,7 @@
     </row>
     <row r="775" spans="10:17">
       <c r="J775" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K775">
         <v>0.04</v>
@@ -31010,7 +30962,7 @@
     </row>
     <row r="783" spans="10:17">
       <c r="J783" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K783">
         <v>0.03846153846153846</v>
@@ -31478,7 +31430,7 @@
     </row>
     <row r="801" spans="10:17">
       <c r="J801" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K801">
         <v>0.03636363636363636</v>
@@ -31660,7 +31612,7 @@
     </row>
     <row r="808" spans="10:17">
       <c r="J808" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K808">
         <v>0.03571428571428571</v>
@@ -31712,7 +31664,7 @@
     </row>
     <row r="810" spans="10:17">
       <c r="J810" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K810">
         <v>0.03545359749739312</v>
@@ -31842,7 +31794,7 @@
     </row>
     <row r="815" spans="10:17">
       <c r="J815" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K815">
         <v>0.03448275862068965</v>
@@ -32232,7 +32184,7 @@
     </row>
     <row r="830" spans="10:17">
       <c r="J830" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="K830">
         <v>0.03023758099352052</v>
@@ -32336,7 +32288,7 @@
     </row>
     <row r="834" spans="10:17">
       <c r="J834" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K834">
         <v>0.02857142857142857</v>
@@ -32466,7 +32418,7 @@
     </row>
     <row r="839" spans="10:17">
       <c r="J839" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K839">
         <v>0.02631578947368421</v>
@@ -32518,7 +32470,7 @@
     </row>
     <row r="841" spans="10:17">
       <c r="J841" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K841">
         <v>0.02631578947368421</v>
@@ -32596,7 +32548,7 @@
     </row>
     <row r="844" spans="10:17">
       <c r="J844" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K844">
         <v>0.025</v>
@@ -33090,7 +33042,7 @@
     </row>
     <row r="863" spans="10:17">
       <c r="J863" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K863">
         <v>0.02205882352941177</v>
@@ -33194,7 +33146,7 @@
     </row>
     <row r="867" spans="10:17">
       <c r="J867" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K867">
         <v>0.0202020202020202</v>
@@ -33298,7 +33250,7 @@
     </row>
     <row r="871" spans="10:17">
       <c r="J871" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K871">
         <v>0.01923076923076923</v>
@@ -33324,7 +33276,7 @@
     </row>
     <row r="872" spans="10:17">
       <c r="J872" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K872">
         <v>0.01724137931034483</v>
@@ -33350,7 +33302,7 @@
     </row>
     <row r="873" spans="10:17">
       <c r="J873" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K873">
         <v>0.01724137931034483</v>
@@ -33376,7 +33328,7 @@
     </row>
     <row r="874" spans="10:17">
       <c r="J874" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K874">
         <v>0.01724137931034483</v>
@@ -33740,7 +33692,7 @@
     </row>
     <row r="888" spans="10:17">
       <c r="J888" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K888">
         <v>0.009523809523809525</v>
@@ -33792,7 +33744,7 @@
     </row>
     <row r="890" spans="10:17">
       <c r="J890" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K890">
         <v>0.008</v>
@@ -33818,7 +33770,7 @@
     </row>
     <row r="891" spans="10:17">
       <c r="J891" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K891">
         <v>0.004273504273504274</v>
@@ -33844,7 +33796,7 @@
     </row>
     <row r="892" spans="10:17">
       <c r="J892" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="K892">
         <v>0.003424657534246575</v>
